--- a/DataTemplate/20140812 - Programaçao ERP_v14.xlsx
+++ b/DataTemplate/20140812 - Programaçao ERP_v14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/caio_calisto_br_ey_com/Documents/Documentos/GitHub/GRCFinancialControl/DataTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{DE6D750F-912D-47BE-ADA8-80CA5F7B419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D0C5CF1-A4E5-4A45-980D-06CECFB6D02B}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{DE6D750F-912D-47BE-ADA8-80CA5F7B419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68284758-8D2F-4AC0-8522-13C0D0EFA55D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3096,6 +3096,9 @@
     <xf numFmtId="0" fontId="42" fillId="35" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3123,10 +3126,10 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3134,9 +3137,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3530,7 +3530,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="WT46" sqref="WT46"/>
+      <selection pane="bottomRight" activeCell="WV34" sqref="WV34:WZ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="16.8" x14ac:dyDescent="0.25"/>
@@ -24374,19 +24374,19 @@
         <v>655</v>
       </c>
       <c r="WV16" s="80" t="s">
-        <v>133</v>
+        <v>655</v>
       </c>
       <c r="WW16" s="80" t="s">
-        <v>133</v>
+        <v>655</v>
       </c>
       <c r="WX16" s="80" t="s">
-        <v>133</v>
+        <v>655</v>
       </c>
       <c r="WY16" s="80" t="s">
-        <v>133</v>
+        <v>655</v>
       </c>
       <c r="WZ16" s="80" t="s">
-        <v>133</v>
+        <v>655</v>
       </c>
       <c r="XA16" s="80" t="s">
         <v>133</v>
@@ -31471,7 +31471,7 @@
       <c r="YM23" s="142"/>
       <c r="YN23" s="143"/>
     </row>
-    <row r="24" spans="1:664" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:664" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="137" t="s">
         <v>255</v>
       </c>
@@ -42712,19 +42712,19 @@
         <v>655</v>
       </c>
       <c r="WV34" s="80" t="s">
-        <v>133</v>
+        <v>655</v>
       </c>
       <c r="WW34" s="80" t="s">
-        <v>133</v>
+        <v>655</v>
       </c>
       <c r="WX34" s="80" t="s">
-        <v>133</v>
+        <v>655</v>
       </c>
       <c r="WY34" s="80" t="s">
-        <v>133</v>
+        <v>655</v>
       </c>
       <c r="WZ34" s="80" t="s">
-        <v>133</v>
+        <v>655</v>
       </c>
       <c r="XA34" s="80" t="s">
         <v>133</v>
@@ -54140,11 +54140,11 @@
     <row r="47" spans="1:664" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="140"/>
       <c r="B47" s="123"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="154" t="s">
+      <c r="C47" s="154"/>
+      <c r="D47" s="155" t="s">
         <v>349</v>
       </c>
-      <c r="E47" s="154"/>
+      <c r="E47" s="155"/>
       <c r="F47" s="84"/>
       <c r="G47" s="129"/>
       <c r="H47" s="129"/>
@@ -54808,11 +54808,11 @@
     <row r="48" spans="1:664" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="140"/>
       <c r="B48" s="123"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="155" t="s">
+      <c r="C48" s="154"/>
+      <c r="D48" s="156" t="s">
         <v>350</v>
       </c>
-      <c r="E48" s="155"/>
+      <c r="E48" s="156"/>
       <c r="F48" s="85"/>
       <c r="G48" s="129"/>
       <c r="H48" s="129"/>
@@ -55476,11 +55476,11 @@
     <row r="49" spans="1:664" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="140"/>
       <c r="B49" s="123"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="158" t="s">
+      <c r="C49" s="154"/>
+      <c r="D49" s="159" t="s">
         <v>351</v>
       </c>
-      <c r="E49" s="159"/>
+      <c r="E49" s="160"/>
       <c r="F49" s="85"/>
       <c r="G49" s="129"/>
       <c r="H49" s="129"/>
@@ -56144,11 +56144,11 @@
     <row r="50" spans="1:664" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="140"/>
       <c r="B50" s="123"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="156" t="s">
+      <c r="C50" s="154"/>
+      <c r="D50" s="157" t="s">
         <v>352</v>
       </c>
-      <c r="E50" s="156"/>
+      <c r="E50" s="157"/>
       <c r="F50" s="86"/>
       <c r="G50" s="129"/>
       <c r="H50" s="129"/>
@@ -56812,11 +56812,11 @@
     <row r="51" spans="1:664" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="140"/>
       <c r="B51" s="123"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="157" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="157"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="158"/>
       <c r="F51" s="85"/>
       <c r="G51" s="129"/>
       <c r="H51" s="129"/>
@@ -69705,138 +69705,138 @@
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="C1" s="162" t="s">
+      <c r="C1" s="163" t="s">
         <v>541</v>
       </c>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="162"/>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="162"/>
-      <c r="AG1" s="162"/>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="162"/>
-      <c r="AJ1" s="162"/>
-      <c r="AK1" s="162"/>
-      <c r="AL1" s="162"/>
-      <c r="AM1" s="162"/>
-      <c r="AN1" s="162"/>
-      <c r="AO1" s="162"/>
-      <c r="AP1" s="162"/>
-      <c r="AQ1" s="162"/>
-      <c r="AR1" s="162"/>
-      <c r="AS1" s="162"/>
-      <c r="AT1" s="162"/>
-      <c r="AU1" s="162"/>
-      <c r="AV1" s="162"/>
-      <c r="AW1" s="162"/>
-      <c r="AX1" s="162"/>
-      <c r="AY1" s="162"/>
-      <c r="AZ1" s="162"/>
-      <c r="BA1" s="162"/>
-      <c r="BB1" s="162"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="163"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="163"/>
+      <c r="AJ1" s="163"/>
+      <c r="AK1" s="163"/>
+      <c r="AL1" s="163"/>
+      <c r="AM1" s="163"/>
+      <c r="AN1" s="163"/>
+      <c r="AO1" s="163"/>
+      <c r="AP1" s="163"/>
+      <c r="AQ1" s="163"/>
+      <c r="AR1" s="163"/>
+      <c r="AS1" s="163"/>
+      <c r="AT1" s="163"/>
+      <c r="AU1" s="163"/>
+      <c r="AV1" s="163"/>
+      <c r="AW1" s="163"/>
+      <c r="AX1" s="163"/>
+      <c r="AY1" s="163"/>
+      <c r="AZ1" s="163"/>
+      <c r="BA1" s="163"/>
+      <c r="BB1" s="163"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="162" t="s">
         <v>542</v>
       </c>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161" t="s">
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162" t="s">
         <v>543</v>
       </c>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161" t="s">
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162" t="s">
         <v>544</v>
       </c>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161" t="s">
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162" t="s">
         <v>545</v>
       </c>
-      <c r="Q2" s="161"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161" t="s">
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162" t="s">
         <v>546</v>
       </c>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161" t="s">
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162" t="s">
         <v>547</v>
       </c>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="161"/>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="161" t="s">
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162" t="s">
         <v>548</v>
       </c>
-      <c r="AD2" s="161"/>
-      <c r="AE2" s="161"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="161" t="s">
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="162"/>
+      <c r="AG2" s="162" t="s">
         <v>549</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="161"/>
-      <c r="AJ2" s="161"/>
-      <c r="AK2" s="161" t="s">
+      <c r="AH2" s="162"/>
+      <c r="AI2" s="162"/>
+      <c r="AJ2" s="162"/>
+      <c r="AK2" s="162" t="s">
         <v>550</v>
       </c>
-      <c r="AL2" s="161"/>
-      <c r="AM2" s="161"/>
-      <c r="AN2" s="161"/>
-      <c r="AO2" s="161"/>
-      <c r="AP2" s="161" t="s">
+      <c r="AL2" s="162"/>
+      <c r="AM2" s="162"/>
+      <c r="AN2" s="162"/>
+      <c r="AO2" s="162"/>
+      <c r="AP2" s="162" t="s">
         <v>551</v>
       </c>
-      <c r="AQ2" s="161"/>
-      <c r="AR2" s="161"/>
-      <c r="AS2" s="161"/>
-      <c r="AT2" s="161" t="s">
+      <c r="AQ2" s="162"/>
+      <c r="AR2" s="162"/>
+      <c r="AS2" s="162"/>
+      <c r="AT2" s="162" t="s">
         <v>552</v>
       </c>
-      <c r="AU2" s="161"/>
-      <c r="AV2" s="161"/>
-      <c r="AW2" s="161"/>
-      <c r="AX2" s="161"/>
-      <c r="AY2" s="161" t="s">
+      <c r="AU2" s="162"/>
+      <c r="AV2" s="162"/>
+      <c r="AW2" s="162"/>
+      <c r="AX2" s="162"/>
+      <c r="AY2" s="162" t="s">
         <v>553</v>
       </c>
-      <c r="AZ2" s="161"/>
-      <c r="BA2" s="161"/>
-      <c r="BB2" s="161"/>
+      <c r="AZ2" s="162"/>
+      <c r="BA2" s="162"/>
+      <c r="BB2" s="162"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -73650,64 +73650,64 @@
       <c r="B36" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
-      <c r="K36" s="160"/>
-      <c r="L36" s="160"/>
-      <c r="M36" s="160"/>
-      <c r="N36" s="160"/>
-      <c r="O36" s="160"/>
-      <c r="P36" s="160"/>
-      <c r="Q36" s="160"/>
-      <c r="R36" s="160"/>
-      <c r="S36" s="160"/>
-      <c r="T36" s="160"/>
-      <c r="U36" s="160"/>
-      <c r="V36" s="160"/>
-      <c r="W36" s="160"/>
-      <c r="X36" s="160"/>
-      <c r="Y36" s="160"/>
-      <c r="Z36" s="160"/>
-      <c r="AA36" s="160"/>
-      <c r="AB36" s="160"/>
-      <c r="AC36" s="160"/>
-      <c r="AD36" s="160"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="161"/>
+      <c r="M36" s="161"/>
+      <c r="N36" s="161"/>
+      <c r="O36" s="161"/>
+      <c r="P36" s="161"/>
+      <c r="Q36" s="161"/>
+      <c r="R36" s="161"/>
+      <c r="S36" s="161"/>
+      <c r="T36" s="161"/>
+      <c r="U36" s="161"/>
+      <c r="V36" s="161"/>
+      <c r="W36" s="161"/>
+      <c r="X36" s="161"/>
+      <c r="Y36" s="161"/>
+      <c r="Z36" s="161"/>
+      <c r="AA36" s="161"/>
+      <c r="AB36" s="161"/>
+      <c r="AC36" s="161"/>
+      <c r="AD36" s="161"/>
       <c r="AE36" s="32"/>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="160"/>
-      <c r="J37" s="160"/>
-      <c r="K37" s="160"/>
-      <c r="L37" s="160"/>
-      <c r="M37" s="160"/>
-      <c r="N37" s="160"/>
-      <c r="O37" s="160"/>
-      <c r="P37" s="160"/>
-      <c r="Q37" s="160"/>
-      <c r="R37" s="160"/>
-      <c r="S37" s="160"/>
-      <c r="T37" s="160"/>
-      <c r="U37" s="160"/>
-      <c r="V37" s="160"/>
-      <c r="W37" s="160"/>
-      <c r="X37" s="160"/>
-      <c r="Y37" s="160"/>
-      <c r="Z37" s="160"/>
-      <c r="AA37" s="160"/>
-      <c r="AB37" s="160"/>
-      <c r="AC37" s="160"/>
-      <c r="AD37" s="160"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="161"/>
+      <c r="M37" s="161"/>
+      <c r="N37" s="161"/>
+      <c r="O37" s="161"/>
+      <c r="P37" s="161"/>
+      <c r="Q37" s="161"/>
+      <c r="R37" s="161"/>
+      <c r="S37" s="161"/>
+      <c r="T37" s="161"/>
+      <c r="U37" s="161"/>
+      <c r="V37" s="161"/>
+      <c r="W37" s="161"/>
+      <c r="X37" s="161"/>
+      <c r="Y37" s="161"/>
+      <c r="Z37" s="161"/>
+      <c r="AA37" s="161"/>
+      <c r="AB37" s="161"/>
+      <c r="AC37" s="161"/>
+      <c r="AD37" s="161"/>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" s="34" t="s">
@@ -73972,157 +73972,157 @@
       <c r="M1" s="164"/>
       <c r="N1" s="164"/>
       <c r="O1" s="164"/>
-      <c r="P1" s="162" t="s">
+      <c r="P1" s="163" t="s">
         <v>610</v>
       </c>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="162"/>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="162"/>
-      <c r="AG1" s="162"/>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="162"/>
-      <c r="AJ1" s="162"/>
-      <c r="AK1" s="162"/>
-      <c r="AL1" s="162"/>
-      <c r="AM1" s="162"/>
-      <c r="AN1" s="162"/>
-      <c r="AO1" s="162"/>
-      <c r="AP1" s="162"/>
-      <c r="AQ1" s="162"/>
-      <c r="AR1" s="162"/>
-      <c r="AS1" s="162"/>
-      <c r="AT1" s="162"/>
-      <c r="AU1" s="162"/>
-      <c r="AV1" s="162"/>
-      <c r="AW1" s="162"/>
-      <c r="AX1" s="162"/>
-      <c r="AY1" s="162"/>
-      <c r="AZ1" s="162"/>
-      <c r="BA1" s="162"/>
-      <c r="BB1" s="162"/>
-      <c r="BC1" s="162"/>
-      <c r="BD1" s="162"/>
-      <c r="BE1" s="162"/>
-      <c r="BF1" s="162"/>
-      <c r="BG1" s="162"/>
-      <c r="BH1" s="162"/>
-      <c r="BI1" s="162"/>
-      <c r="BJ1" s="162"/>
-      <c r="BK1" s="162"/>
-      <c r="BL1" s="162"/>
-      <c r="BM1" s="162"/>
-      <c r="BN1" s="162"/>
-      <c r="BO1" s="162"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="163"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="163"/>
+      <c r="AJ1" s="163"/>
+      <c r="AK1" s="163"/>
+      <c r="AL1" s="163"/>
+      <c r="AM1" s="163"/>
+      <c r="AN1" s="163"/>
+      <c r="AO1" s="163"/>
+      <c r="AP1" s="163"/>
+      <c r="AQ1" s="163"/>
+      <c r="AR1" s="163"/>
+      <c r="AS1" s="163"/>
+      <c r="AT1" s="163"/>
+      <c r="AU1" s="163"/>
+      <c r="AV1" s="163"/>
+      <c r="AW1" s="163"/>
+      <c r="AX1" s="163"/>
+      <c r="AY1" s="163"/>
+      <c r="AZ1" s="163"/>
+      <c r="BA1" s="163"/>
+      <c r="BB1" s="163"/>
+      <c r="BC1" s="163"/>
+      <c r="BD1" s="163"/>
+      <c r="BE1" s="163"/>
+      <c r="BF1" s="163"/>
+      <c r="BG1" s="163"/>
+      <c r="BH1" s="163"/>
+      <c r="BI1" s="163"/>
+      <c r="BJ1" s="163"/>
+      <c r="BK1" s="163"/>
+      <c r="BL1" s="163"/>
+      <c r="BM1" s="163"/>
+      <c r="BN1" s="163"/>
+      <c r="BO1" s="163"/>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="165" t="s">
         <v>551</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163" t="s">
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165" t="s">
         <v>552</v>
       </c>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163" t="s">
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165" t="s">
         <v>553</v>
       </c>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163" t="s">
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165" t="s">
         <v>542</v>
       </c>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163" t="s">
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165" t="s">
         <v>543</v>
       </c>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163" t="s">
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165" t="s">
         <v>544</v>
       </c>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163" t="s">
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165" t="s">
         <v>545</v>
       </c>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="163" t="s">
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165" t="s">
         <v>546</v>
       </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="163"/>
-      <c r="AJ2" s="163"/>
-      <c r="AK2" s="163"/>
-      <c r="AL2" s="163" t="s">
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="165"/>
+      <c r="AK2" s="165"/>
+      <c r="AL2" s="165" t="s">
         <v>547</v>
       </c>
-      <c r="AM2" s="163"/>
-      <c r="AN2" s="163"/>
-      <c r="AO2" s="163"/>
-      <c r="AP2" s="163" t="s">
+      <c r="AM2" s="165"/>
+      <c r="AN2" s="165"/>
+      <c r="AO2" s="165"/>
+      <c r="AP2" s="165" t="s">
         <v>548</v>
       </c>
-      <c r="AQ2" s="163"/>
-      <c r="AR2" s="163"/>
-      <c r="AS2" s="163"/>
-      <c r="AT2" s="163"/>
-      <c r="AU2" s="163" t="s">
+      <c r="AQ2" s="165"/>
+      <c r="AR2" s="165"/>
+      <c r="AS2" s="165"/>
+      <c r="AT2" s="165"/>
+      <c r="AU2" s="165" t="s">
         <v>549</v>
       </c>
-      <c r="AV2" s="163"/>
-      <c r="AW2" s="163"/>
-      <c r="AX2" s="163"/>
-      <c r="AY2" s="163" t="s">
+      <c r="AV2" s="165"/>
+      <c r="AW2" s="165"/>
+      <c r="AX2" s="165"/>
+      <c r="AY2" s="165" t="s">
         <v>550</v>
       </c>
-      <c r="AZ2" s="163"/>
-      <c r="BA2" s="163"/>
-      <c r="BB2" s="163"/>
-      <c r="BC2" s="163" t="s">
+      <c r="AZ2" s="165"/>
+      <c r="BA2" s="165"/>
+      <c r="BB2" s="165"/>
+      <c r="BC2" s="165" t="s">
         <v>551</v>
       </c>
-      <c r="BD2" s="163"/>
-      <c r="BE2" s="163"/>
-      <c r="BF2" s="163"/>
-      <c r="BG2" s="163" t="s">
+      <c r="BD2" s="165"/>
+      <c r="BE2" s="165"/>
+      <c r="BF2" s="165"/>
+      <c r="BG2" s="165" t="s">
         <v>552</v>
       </c>
-      <c r="BH2" s="163"/>
-      <c r="BI2" s="163"/>
-      <c r="BJ2" s="163"/>
-      <c r="BK2" s="163"/>
-      <c r="BL2" s="163" t="s">
+      <c r="BH2" s="165"/>
+      <c r="BI2" s="165"/>
+      <c r="BJ2" s="165"/>
+      <c r="BK2" s="165"/>
+      <c r="BL2" s="165" t="s">
         <v>553</v>
       </c>
-      <c r="BM2" s="163"/>
-      <c r="BN2" s="163"/>
-      <c r="BO2" s="163"/>
+      <c r="BM2" s="165"/>
+      <c r="BN2" s="165"/>
+      <c r="BO2" s="165"/>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -79804,14 +79804,6 @@
     <sortCondition ref="A51:A57"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:X2"/>
     <mergeCell ref="AY2:BB2"/>
     <mergeCell ref="BC2:BF2"/>
     <mergeCell ref="P1:BO1"/>
@@ -79821,6 +79813,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AK2"/>
     <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -79844,12 +79844,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>644</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
     </row>
     <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="87" t="s">
@@ -79978,15 +79978,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E146CB7A9A356A40B4D4093F195738B8" ma:contentTypeVersion="17" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="bd1d5d5270a16b882726ef8d94b50f8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="afe616d5-05b8-42be-88fe-b51e907e17e9" xmlns:ns3="b144ca7e-c4c1-4341-89fa-3646ecb6f902" xmlns:ns4="50c908b1-f277-4340-90a9-4611d0b0f078" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="06a4abd90fee4d577caddd676154597e" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="afe616d5-05b8-42be-88fe-b51e907e17e9"/>
@@ -80240,6 +80231,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -80274,14 +80274,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26BE35F4-7283-4C18-90BB-7FEFC20701A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{830CF247-5CE8-48B7-972F-F3691145D5F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -80301,6 +80293,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26BE35F4-7283-4C18-90BB-7FEFC20701A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6EA239B-F4FA-4439-AC3B-458BB9F89942}">
   <ds:schemaRefs>
